--- a/Milestones/M3 december presentation/graphs.xlsx
+++ b/Milestones/M3 december presentation/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\Milestones\M3 december presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FE7FA-2329-4FEE-B3B5-C855537287D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCF5E5-CCA1-4FCD-9DD9-D661CA1F8C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="77">
   <si>
     <t>storm</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Solver</t>
   </si>
   <si>
-    <t>solver</t>
-  </si>
-  <si>
     <t>RSK</t>
   </si>
   <si>
@@ -248,6 +245,36 @@
   </si>
   <si>
     <t>Metaporphic Testen</t>
+  </si>
+  <si>
+    <t>solver Interface</t>
+  </si>
+  <si>
+    <t>solver independent</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>CTORM, Meta, Diff</t>
+  </si>
+  <si>
+    <t>CTORM, Diff</t>
+  </si>
+  <si>
+    <t>Meta, Diff</t>
+  </si>
+  <si>
+    <t>CTORM, Meta</t>
+  </si>
+  <si>
+    <t>minizinc subsolvers</t>
+  </si>
+  <si>
+    <t>pysat subsolvers</t>
   </si>
 </sst>
 </file>
@@ -320,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -337,11 +364,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +432,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +526,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Type of bug</a:t>
+              <a:t>Type van de bug</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -608,6 +706,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Aantal bugs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -903,6 +1056,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Aantal bugs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1205,6 +1413,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Aantal bugs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2963,13 +3226,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3004,15 +3267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3043,7 +3306,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ruben kindt" refreshedDate="44910.593059837964" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{1D6C29E8-AEED-403C-B368-107ACA086FE7}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:N21" sheet="junk"/>
+    <worksheetSource ref="B2:I21" sheet="junk"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Model, Transformation, Solver" numFmtId="0">
@@ -3107,7 +3370,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ruben kindt" refreshedDate="44910.598192476849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{D0282184-EFB8-46C1-91C7-129694A0504F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:N21" sheet="junk"/>
+    <worksheetSource ref="B2:I21" sheet="junk"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Model, Transformation, Solver" numFmtId="0">
@@ -3826,7 +4089,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0609435A-44C1-4E3C-930F-28DDD105B810}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0609435A-44C1-4E3C-930F-28DDD105B810}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3973,7 +4236,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF6D92D2-1CE4-4F64-99F8-1A5B1F72E98B}" name="PivotTable21" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF6D92D2-1CE4-4F64-99F8-1A5B1F72E98B}" name="PivotTable21" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4135,7 +4398,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E19EED97-628A-47B5-AAD0-1A840EE81BE5}" name="PivotTable21" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E19EED97-628A-47B5-AAD0-1A840EE81BE5}" name="PivotTable21" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4562,7 +4825,7 @@
   <dimension ref="B2:U26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,7 +4850,7 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -4760,7 +5023,7 @@
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>149</v>
@@ -4798,7 +5061,7 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>150</v>
@@ -4886,7 +5149,7 @@
     </row>
     <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>153</v>
@@ -4922,7 +5185,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>154</v>
@@ -4952,7 +5215,7 @@
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C13" s="11">
         <v>155</v>
@@ -5111,13 +5374,13 @@
     </row>
     <row r="18" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C18" s="11">
         <v>159</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>42</v>
@@ -5176,7 +5439,7 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>162</v>
@@ -5242,7 +5505,7 @@
         <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>40</v>
@@ -5267,7 +5530,7 @@
         <v>160</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>35</v>
@@ -5366,7 +5629,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>0</v>
@@ -5399,7 +5662,7 @@
   <dimension ref="A3:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5413,7 +5676,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5454,7 +5717,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -5462,7 +5725,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5479,7 +5742,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,7 +5756,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5514,7 +5777,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -5530,7 +5793,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5538,7 +5801,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -5546,7 +5809,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -5564,7 +5827,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5578,7 +5841,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5599,7 +5862,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -5631,7 +5894,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -5653,542 +5916,481 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF07A57F-71DD-4ECB-A2B9-28B455AC0518}">
-  <dimension ref="B2:S21"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="B2" sqref="B2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="9.140625" style="4"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="26">
         <v>145</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="27">
         <v>158</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="27">
         <v>161</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="27">
         <v>156</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7">
+      <c r="D7" s="27">
         <v>149</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8">
+      <c r="D8" s="27">
         <v>150</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
+      <c r="D9" s="27">
         <v>152</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="27">
+        <v>153</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>153</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="6"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11">
+      <c r="D11" s="27">
         <v>154</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="D12" s="28">
         <v>155</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="10"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="D13" s="28">
         <v>159</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="16"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="8"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14">
+      <c r="D14" s="27">
         <v>162</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="21"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27">
         <v>142</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E15" s="21"/>
+      <c r="F15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="27">
         <v>143</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E16" s="21"/>
+      <c r="F16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="27">
         <v>157</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27">
         <v>164</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E18" s="21"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="27">
         <v>165</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E19" s="21"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="27">
         <v>168</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E20" s="21"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="27">
         <v>170</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="4"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="N21" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:P21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K21">
     <sortCondition ref="B3:B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
